--- a/similarities/split_global/harmonic_similarity_timestamps_31.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.850181', '0:00:33.826235')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.605000', '0:00:14.292000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=7.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:01:04.080000', '0:01:11.860000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:maj7']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:27.630000', '0:00:31.040000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:51.170000', '0:00:54.730000')]</t>
+          <t>('0:00:01.360000', '0:00:04.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=27.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>jaah_31</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7/G#']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:12.420000', '0:00:19.660000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=12.42</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=5.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:min/5', 'D', 'B:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'G', 'E:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:21.618000', '0:01:28.254000')]</t>
+          <t>('0:02:14.840000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:28.639376', '0:00:34.339875')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-65#t=81.618']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=28.639376']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['F:maj', 'Bb:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['D', 'G', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:45.697000', '0:01:02.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:11.607540', '0:00:17.261599')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=45.697</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=11.60754</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'F:maj/A', 'C:maj/G']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:20.614081', '0:00:24.271224')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:28.160000', '0:00:30.920000')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=28.16']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:10.620000'), ('0:00:02.020000', '0:00:08.580000')]</t>
+          <t>('0:00:23.420000', '0:00:31.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:16.480000'), ('0:00:06.220000', '0:00:14.320000')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=6.22']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+          <t>('0:00:49.480000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:31', '0:00:43.660000')]</t>
+          <t>('0:00:09.840000', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=49.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=31.0']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=9.84</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['Bb:7', 'Eb:7', 'F:min7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:01:41.090000', '0:01:47.520000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:48.450000', '0:00:52.970000')]</t>
+          <t>('0:00:11.420000', '0:00:20.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=101.09</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=48.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=11.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:32.400000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:13', '0:04:20.200000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.480000', '0:00:21.420000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=18.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
